--- a/client/public/Sorce/balanceML.xlsx
+++ b/client/public/Sorce/balanceML.xlsx
@@ -19,7 +19,7 @@
     <t>Формирвоание отчета</t>
   </si>
   <si>
-    <t>Период: на 31.01.2025 12:25:14</t>
+    <t>Период: на 01.02.2025 11:35:12</t>
   </si>
   <si>
     <t>Показатели: Свободный остаток(В ед. хранения);</t>
